--- a/docs/Test chức năng.xlsx
+++ b/docs/Test chức năng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\DoAn2_Toyzone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\DoAn2_Toyzone\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96402F39-EFF6-41D5-AC13-F976E97901F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD1370-AC4D-4786-A6CC-04B123B7EEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4490" yWindow="1650" windowWidth="14400" windowHeight="8170" tabRatio="877" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chung" sheetId="22" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="877">
   <si>
     <t>STT</t>
   </si>
@@ -3819,6 +3819,9 @@
   </si>
   <si>
     <t>Hiển thị thông báo lỗi "Mô tả không được vượt quá 512 ký tự".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
   </si>
 </sst>
 </file>
@@ -4411,19 +4414,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4435,20 +4444,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4456,17 +4468,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4477,14 +4495,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4495,7 +4510,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4507,18 +4537,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4526,21 +4544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7485,7 +7488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -7718,41 +7721,41 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124">
+      <c r="B13" s="85"/>
+      <c r="C13" s="83">
         <f>SUM(C2:C11)</f>
         <v>169</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="83">
         <f>SUM(D2:D11)</f>
         <v>152</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="83">
         <f>SUM(E2:E11)</f>
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="125">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84">
         <f>C13/C13</f>
         <v>1</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14" s="84">
         <f>D13/C13</f>
         <v>0.89940828402366868</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="84">
         <f>E13/C13</f>
         <v>0.10059171597633136</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="C15" s="122"/>
+      <c r="C15" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8641,8 +8644,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -9238,7 +9241,7 @@
         <v>778</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>844</v>
@@ -9265,7 +9268,7 @@
         <v>782</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>846</v>
@@ -9292,7 +9295,7 @@
         <v>786</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>848</v>
@@ -9319,7 +9322,7 @@
         <v>790</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>850</v>
@@ -9346,7 +9349,7 @@
         <v>794</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>852</v>
@@ -9373,7 +9376,7 @@
         <v>799</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>854</v>
@@ -9400,7 +9403,7 @@
         <v>803</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>856</v>
@@ -9427,7 +9430,7 @@
         <v>807</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>858</v>
@@ -9459,16 +9462,16 @@
       <c r="E31" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="F31" s="118" t="s">
+      <c r="F31" s="123" t="s">
         <v>840</v>
       </c>
-      <c r="G31" s="118" t="s">
+      <c r="G31" s="123" t="s">
         <v>840</v>
       </c>
-      <c r="H31" s="119" t="s">
+      <c r="H31" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="I31" s="104"/>
+      <c r="I31" s="103"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="73" customHeight="1">
       <c r="A32" s="17" t="s">
@@ -9486,10 +9489,10 @@
       <c r="E32" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="105"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="104"/>
     </row>
     <row r="33" spans="1:9" ht="49" customHeight="1">
       <c r="A33" s="17" t="s">
@@ -9868,8 +9871,8 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -9882,7 +9885,7 @@
     <col min="6" max="6" width="25.90625" customWidth="1"/>
     <col min="7" max="7" width="26.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.90625" style="5"/>
-    <col min="9" max="9" width="29.90625" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="46" customHeight="1">
@@ -9969,585 +9972,585 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="52" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="96" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="93" t="s">
-        <v>40</v>
+      <c r="I5" s="86" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="90"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="90"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9" ht="33">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="93" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="86"/>
     </row>
     <row r="10" spans="1:9" ht="42" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="85"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86"/>
     </row>
     <row r="11" spans="1:9" ht="57.65" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="96" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="93" t="s">
+      <c r="I11" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="82"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="90"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="1:9" ht="47.5" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="96" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="93" t="s">
+      <c r="I13" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="53" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="90"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="82"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="90"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="86"/>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="96" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="93" t="s">
+      <c r="I16" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="90"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="86"/>
     </row>
     <row r="18" spans="1:9" ht="29.5" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="90"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:9" ht="31" customHeight="1">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="89" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="91" t="s">
+      <c r="G19" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="31" customHeight="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="89" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="93" t="s">
+      <c r="I22" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.5" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="85"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:9" ht="86.4" customHeight="1">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="89" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="92" t="s">
+      <c r="H25" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="85"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="86"/>
     </row>
     <row r="27" spans="1:9" ht="57.65" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="96" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="86" t="s">
+      <c r="G27" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="93" t="s">
+      <c r="I27" s="86" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33">
-      <c r="A28" s="82"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="90"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="72" customHeight="1">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="96" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="86" t="s">
+      <c r="G29" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="93" t="s">
+      <c r="I29" s="86" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="33">
-      <c r="A30" s="82"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="90"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -10565,8 +10568,8 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -10579,7 +10582,7 @@
     <col min="6" max="6" width="28.81640625" customWidth="1"/>
     <col min="7" max="7" width="26.1796875" customWidth="1"/>
     <col min="8" max="8" width="8.90625" style="5"/>
-    <col min="9" max="9" width="28.08984375" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="46" customHeight="1">
@@ -10666,424 +10669,424 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="139.5" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="102" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="93" t="s">
-        <v>40</v>
+      <c r="I5" s="86" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33.65" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="97"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="130" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="102" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="97"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
     </row>
     <row r="9" spans="1:9" ht="131" customHeight="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="97"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86"/>
     </row>
     <row r="11" spans="1:9" ht="151" customHeight="1">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="93" t="s">
+      <c r="I11" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="97"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="86"/>
     </row>
     <row r="13" spans="1:9" ht="147" customHeight="1">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="93" t="s">
+      <c r="I13" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29.5" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="97"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="86"/>
     </row>
     <row r="15" spans="1:9" ht="135" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="98" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="93" t="s">
+      <c r="I15" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" spans="1:9" ht="135" customHeight="1">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="98" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="93" t="s">
+      <c r="I17" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:9" ht="72" customHeight="1">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="86" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="33" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="97"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" ht="73" customHeight="1">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="102" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="94" t="s">
+      <c r="G21" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="93" t="s">
+      <c r="I21" s="86" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="49.5" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="97"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="1:9" ht="72" customHeight="1">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="102" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="94" t="s">
+      <c r="G23" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="86" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33">
-      <c r="A24" s="85"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="97"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:9" ht="14.5" customHeight="1">
       <c r="H25" s="26"/>
@@ -11105,86 +11108,86 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -11304,815 +11307,855 @@
       <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="24.5" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="97" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" ht="24.5" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="82"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="105"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1">
-      <c r="A7" s="82"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="82"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="106"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="1:10" ht="28" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="93" t="s">
         <v>163</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="104"/>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="105"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="84"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="105"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="84"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="105"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="38.5" customHeight="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="84"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="105"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="39" customHeight="1">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="84"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="105"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="84"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="106"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="26.5" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="93" t="s">
         <v>163</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="104"/>
+      <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1">
-      <c r="A16" s="84"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="84"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="105"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="1:10" ht="28" customHeight="1">
-      <c r="A17" s="84"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="84"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="105"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="104"/>
     </row>
     <row r="18" spans="1:10" ht="33.5" customHeight="1">
-      <c r="A18" s="84"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="84"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="105"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A19" s="84"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="84"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="105"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="84"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="105"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="104"/>
     </row>
     <row r="21" spans="1:10" ht="41" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="84"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="106"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" ht="26.5" customHeight="1">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="93" t="s">
         <v>163</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="101" t="s">
+      <c r="I22" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="104"/>
+      <c r="J22" s="103"/>
     </row>
     <row r="23" spans="1:10" ht="27" customHeight="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="84"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="105"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="104"/>
     </row>
     <row r="24" spans="1:10" ht="28" customHeight="1">
-      <c r="A24" s="84"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="84"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="105"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="33.5" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="84"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="105"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A26" s="84"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="84"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="105"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="84"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="105"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="104"/>
     </row>
     <row r="28" spans="1:10" ht="41" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="85"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="106"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="105"/>
     </row>
     <row r="29" spans="1:10" ht="26.5" customHeight="1">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="94" t="s">
         <v>163</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="G29" s="83" t="s">
+      <c r="G29" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="101" t="s">
+      <c r="I29" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="104"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" ht="27" customHeight="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="105"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="1:10" ht="28" customHeight="1">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="105"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="104"/>
     </row>
     <row r="32" spans="1:10" ht="33.5" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="105"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="104"/>
     </row>
     <row r="33" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="105"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="104"/>
     </row>
     <row r="34" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="105"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="84"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="106"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="105"/>
     </row>
     <row r="36" spans="1:10" ht="26.5" customHeight="1">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="94" t="s">
         <v>163</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="83" t="s">
+      <c r="G36" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="92" t="s">
+      <c r="H36" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="101" t="s">
+      <c r="I36" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="104"/>
+      <c r="J36" s="103"/>
     </row>
     <row r="37" spans="1:10" ht="27" customHeight="1">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="105"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="104"/>
     </row>
     <row r="38" spans="1:10" ht="28" customHeight="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="105"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="1:10" ht="33.5" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="105"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="105"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="105"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="106"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="105"/>
     </row>
     <row r="43" spans="1:10" ht="26.5" customHeight="1">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="93" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="94" t="s">
         <v>163</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="92" t="s">
+      <c r="H43" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="101" t="s">
+      <c r="I43" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="104"/>
+      <c r="J43" s="103"/>
     </row>
     <row r="44" spans="1:10" ht="27" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="105"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="104"/>
     </row>
     <row r="45" spans="1:10" ht="28" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="105"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="104"/>
     </row>
     <row r="46" spans="1:10" ht="33.5" customHeight="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="105"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="104"/>
     </row>
     <row r="47" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="105"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="104"/>
     </row>
     <row r="48" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="105"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="104"/>
     </row>
     <row r="49" spans="1:10" ht="36.5" customHeight="1">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
       <c r="E49" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="106"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="105"/>
     </row>
     <row r="50" spans="1:10" ht="33.5" customHeight="1">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="93" t="s">
         <v>163</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="83" t="s">
+      <c r="F50" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="G50" s="83" t="s">
+      <c r="G50" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="H50" s="92" t="s">
+      <c r="H50" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="101" t="s">
+      <c r="I50" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="J50" s="104"/>
+      <c r="J50" s="103"/>
     </row>
     <row r="51" spans="1:10" ht="27" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
       <c r="E51" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="105"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="104"/>
     </row>
     <row r="52" spans="1:10" ht="28" customHeight="1">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="106"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="J36:J42"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="J22:J28"/>
-    <mergeCell ref="J29:J35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="F29:F35"/>
     <mergeCell ref="H36:H42"/>
     <mergeCell ref="H43:H49"/>
     <mergeCell ref="H50:H52"/>
@@ -12129,54 +12172,14 @@
     <mergeCell ref="H15:H21"/>
     <mergeCell ref="H22:H28"/>
     <mergeCell ref="H29:H35"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G14"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J22:J28"/>
+    <mergeCell ref="J29:J35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -12326,240 +12329,240 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="100.75" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="101" t="s">
         <v>217</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="93" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.5">
-      <c r="A7" s="82"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="85"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="95"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="101" t="s">
         <v>209</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="82"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="85"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="101" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33">
-      <c r="A11" s="82"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="85"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" ht="33">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="101" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="94" t="s">
+      <c r="G12" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5">
-      <c r="A13" s="82"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="85"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="101" t="s">
         <v>244</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="94" t="s">
+      <c r="G14" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="93" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="82"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="84"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:9" ht="33">
-      <c r="A16" s="82"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="84"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:9" ht="49.5">
-      <c r="A17" s="82"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="85"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="99">
       <c r="A18" s="23" t="s">
@@ -12614,46 +12617,46 @@
     <row r="40" ht="14.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H17"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -12670,7 +12673,7 @@
   </sheetPr>
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H11" sqref="H11:H27"/>
     </sheetView>
   </sheetViews>
@@ -12773,498 +12776,498 @@
       <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="37" customHeight="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="104"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" ht="28" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="106"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="115" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="104"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="106"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="115" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="104"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:10" ht="152" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="106"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:10" ht="42" customHeight="1">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E11" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="104"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="106"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="104"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="106"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="115" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E15" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="104"/>
+      <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="106"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="105"/>
     </row>
     <row r="17" spans="1:10" ht="32" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="115" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="115" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="115" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E17" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="110" t="s">
+      <c r="G17" s="115"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="104"/>
+      <c r="J17" s="103"/>
     </row>
     <row r="18" spans="1:10" ht="35" customHeight="1">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="106"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:10" ht="48" customHeight="1">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="115" t="s">
         <v>295</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="115" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="110" t="s">
+      <c r="F19" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="G19" s="110" t="s">
+      <c r="G19" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J19" s="104"/>
+      <c r="J19" s="103"/>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="106"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="44" customHeight="1">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="115" t="s">
         <v>301</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E21" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="115" t="s">
         <v>303</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="115" t="s">
         <v>303</v>
       </c>
-      <c r="H21" s="121" t="s">
+      <c r="H21" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J21" s="104"/>
+      <c r="J21" s="103"/>
     </row>
     <row r="22" spans="1:10" ht="34" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="106"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="105"/>
     </row>
     <row r="23" spans="1:10" ht="41" customHeight="1">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="115" t="s">
         <v>259</v>
       </c>
       <c r="E23" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="F23" s="110" t="s">
+      <c r="F23" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="G23" s="110" t="s">
+      <c r="G23" s="115" t="s">
         <v>267</v>
       </c>
-      <c r="H23" s="121" t="s">
+      <c r="H23" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="110" t="s">
+      <c r="I23" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="104"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="106"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="105"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="120" t="s">
         <v>310</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="115" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="115" t="s">
         <v>312</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="115" t="s">
         <v>313</v>
       </c>
       <c r="E25" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="115" t="s">
         <v>315</v>
       </c>
-      <c r="G25" s="110" t="s">
+      <c r="G25" s="115" t="s">
         <v>315</v>
       </c>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="115" t="s">
+      <c r="I25" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="104"/>
+      <c r="J25" s="103"/>
     </row>
     <row r="26" spans="1:10" ht="37" customHeight="1">
-      <c r="A26" s="112"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="105"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:10" ht="135" customHeight="1">
-      <c r="A27" s="113"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="106"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="14.5" customHeight="1">
       <c r="I28" s="26"/>
@@ -13574,17 +13577,78 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="I7:I8"/>
@@ -13601,78 +13665,17 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -13690,8 +13693,8 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -13699,9 +13702,8 @@
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" style="44" customWidth="1"/>
     <col min="3" max="3" width="25.7265625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="36.90625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="45.36328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="26" style="44" customWidth="1"/>
+    <col min="5" max="6" width="36.90625" style="44" customWidth="1"/>
     <col min="7" max="7" width="43.1796875" style="44" customWidth="1"/>
     <col min="8" max="8" width="8.90625" style="56"/>
     <col min="9" max="9" width="18.54296875" style="4" customWidth="1"/>
@@ -14607,7 +14609,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
